--- a/jupyter_notebook/world_literacy_data_2021_2023.xlsx
+++ b/jupyter_notebook/world_literacy_data_2021_2023.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="885" windowWidth="20730" windowHeight="9135"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -951,8 +951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E587"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A562" workbookViewId="0">
+      <selection activeCell="G582" sqref="G582"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10809,6 +10809,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
